--- a/notebooks/cleaning_audit_changes.xlsx
+++ b/notebooks/cleaning_audit_changes.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Entity Type</t>
+          <t>Global Ultimate Country Name</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Company Status (Active/Inactive)</t>
+          <t>Parent Country/Region</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SIC Description</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,423 +492,423 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>SIC Description</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8556</v>
+        <v>8555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996494917630564</v>
+        <v>0.9995326556840752</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Parent Country/Region</t>
+          <t>Parent Company</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8556</v>
+        <v>8523</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996494917630564</v>
+        <v>0.9957939011566772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Global Ultimate Country Name</t>
+          <t>Domestic Ultimate Company</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8556</v>
+        <v>8518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996494917630564</v>
+        <v>0.9952097207617713</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Parent Company</t>
+          <t>Global Ultimate Company</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8523</v>
+        <v>8518</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9957939011566772</v>
+        <v>0.9952097207617713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Domestic Ultimate Company</t>
+          <t>Parent State/Province</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8518</v>
+        <v>8418</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9952097207617713</v>
+        <v>0.9835261128636523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Global Ultimate Company</t>
+          <t>Company Sites</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8518</v>
+        <v>8294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9952097207617713</v>
+        <v>0.9690384390699848</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Parent State/Province</t>
+          <t>Domestic Ultimate State/Province Name</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8418</v>
+        <v>8206</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9835261128636523</v>
+        <v>0.9587568641196401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Company Sites</t>
+          <t>Global Ultimate State/Province</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8294</v>
+        <v>8197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9690384390699848</v>
+        <v>0.9577053394088094</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Domestic Ultimate State/Province Name</t>
+          <t>Parents City</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8206</v>
+        <v>8172</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9587568641196401</v>
+        <v>0.9547844374342797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Global Ultimate State/Province</t>
+          <t>State</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8197</v>
+        <v>8041</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9577053394088094</v>
+        <v>0.9394789110877438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Parents City</t>
+          <t>Domestic Ultimate City Name</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8172</v>
+        <v>7979</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9547844374342797</v>
+        <v>0.9322350741909101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>Global Ultimate City Name</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8044</v>
+        <v>7973</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9398294193246874</v>
+        <v>0.931534057717023</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Domestic Ultimate City Name</t>
+          <t>Parent State/Province Abbreviation</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7979</v>
+        <v>7940</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9322350741909101</v>
+        <v>0.9276784671106437</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Global Ultimate City Name</t>
+          <t>State Or Province Abbreviation</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7973</v>
+        <v>7821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.931534057717023</v>
+        <v>0.9137749737118822</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Parent State/Province Abbreviation</t>
+          <t>Registration Number</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7940</v>
+        <v>7752</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9276784671106437</v>
+        <v>0.9057132842621801</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>State Or Province Abbreviation</t>
+          <t>Domestic Ultimate State Abbreviation</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7821</v>
+        <v>7725</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9137749737118822</v>
+        <v>0.902558710129688</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Ultimate State/Province Abbreviation</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7798</v>
+        <v>7664</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9110877438953149</v>
+        <v>0.8954317093118355</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Registration Number</t>
+          <t>City</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7752</v>
+        <v>7622</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9057132842621801</v>
+        <v>0.8905245939946256</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Domestic Ultimate State Abbreviation</t>
+          <t>Parent Street Address</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7725</v>
+        <v>4554</v>
       </c>
       <c r="C23" t="n">
-        <v>0.902558710129688</v>
+        <v>0.5320715036803365</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ultimate State/Province Abbreviation</t>
+          <t>Global Ultimate Street Address</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7664</v>
+        <v>4528</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8954317093118355</v>
+        <v>0.5290337656268256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ownership Type</t>
+          <t>Domestic Ultimate Street Address</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7477</v>
+        <v>4472</v>
       </c>
       <c r="C25" t="n">
-        <v>0.873583362542353</v>
+        <v>0.522490945203879</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Parent Street Address</t>
+          <t>Address Line 1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4554</v>
+        <v>4190</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5320715036803365</v>
+        <v>0.4895431709311835</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Global Ultimate Street Address</t>
+          <t>Company Description</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4528</v>
+        <v>48</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5290337656268256</v>
+        <v>0.005608131791097091</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Domestic Ultimate Street Address</t>
+          <t>Global Ultimate Postal Code</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4472</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.522490945203879</v>
+        <v>0.003738754527398061</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Address Line 1</t>
+          <t>Registration Number Type</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4190</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4895431709311835</v>
+        <v>0.0009346886318495151</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Franchise Status</t>
+          <t>Lattitude</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2521</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2945437551115784</v>
+        <v>0.0004673443159247576</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Manufacturing Status</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03049421661409043</v>
+        <v>0.0001168360789811894</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Company Description</t>
+          <t>Entity Type</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005608131791097091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Global Ultimate Postal Code</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003738754527398061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Registration Number Type</t>
+          <t>NAICS Description</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0009346886318495151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lattitude</t>
+          <t>NACE Rev 2 Description</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0004673443159247576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Ownership Type</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001168360789811894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>8-Digit SIC Description</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NAICS Description</t>
+          <t>Company Status (Active/Inactive)</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NACE Rev 2 Description</t>
+          <t>Franchise Status</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8-Digit SIC Description</t>
+          <t>Manufacturing Status</t>
         </is>
       </c>
       <c r="B40" t="n">
